--- a/German/Modeling-Workshop/Tantiemen.xlsx
+++ b/German/Modeling-Workshop/Tantiemen.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MartinBubenheimer\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CE8382-77D8-4019-9A91-1DF568478CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5083B2C-54D6-4FEA-B7AD-7EE731562EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40710" yWindow="2085" windowWidth="28800" windowHeight="11700" xr2:uid="{674EE3BC-E82B-4DDB-BBC6-0651CB6570C4}"/>
+    <workbookView xWindow="47505" yWindow="2370" windowWidth="28800" windowHeight="11700" xr2:uid="{674EE3BC-E82B-4DDB-BBC6-0651CB6570C4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Autor" sheetId="1" r:id="rId1"/>
-    <sheet name="Verkäufe" sheetId="2" r:id="rId2"/>
-    <sheet name="Kalender" sheetId="4" r:id="rId3"/>
-    <sheet name="Mitarbeiter" sheetId="5" r:id="rId4"/>
+    <sheet name="Link" sheetId="6" r:id="rId1"/>
+    <sheet name="Autor" sheetId="1" r:id="rId2"/>
+    <sheet name="Verkäufe" sheetId="2" r:id="rId3"/>
+    <sheet name="Kalender" sheetId="4" r:id="rId4"/>
+    <sheet name="Mitarbeiter" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="81">
   <si>
     <t>Autor</t>
   </si>
@@ -277,15 +278,29 @@
   <si>
     <t>Manuel Müller</t>
   </si>
+  <si>
+    <t>https://t.ly/IRIpW</t>
+  </si>
+  <si>
+    <t>https://github.com/MartinBubenheimer/powerbi-training/tree/main/German/Modeling-Workshop</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -308,14 +323,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -336,6 +354,64 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>45566</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Grafik 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{428B4C6D-9B57-46BF-9DAF-8A76CDDA6D22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="180975"/>
+          <a:ext cx="3302000" cy="3306291"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -685,10 +761,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9459C45B-A6B1-4B2D-816D-6855097E95EF}">
+  <dimension ref="B21:B23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B21" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B23" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B21" r:id="rId1" xr:uid="{E0AC525C-043E-4956-958B-1B7FE3F5BE24}"/>
+    <hyperlink ref="B23" r:id="rId2" xr:uid="{271DD4CF-5F30-4806-83EC-6E7F3126C263}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA590E25-5841-4F62-BD97-C59CE8A3AC5D}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -937,7 +1043,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824EC751-BF16-4FEA-8B6D-1E76310D3418}">
   <dimension ref="A1:E101"/>
   <sheetViews>
@@ -2679,7 +2785,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B27F22C-35EF-4A6D-B36C-910287AFD963}">
   <dimension ref="A1:F731"/>
   <sheetViews>
@@ -17325,7 +17431,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598C1CD6-55B6-4F22-9117-0D2BD3A7175E}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -17367,6 +17473,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="e2e422d0-8bd1-435e-b8fa-e3e725e97536" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a6accf4b-b7ec-4b3d-a55f-4a1bc731afdb">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E3FC299F5101F64CAEC11DD3089C50AD" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="433a7846033281b782043e568d806bf6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a6accf4b-b7ec-4b3d-a55f-4a1bc731afdb" xmlns:ns3="e2e422d0-8bd1-435e-b8fa-e3e725e97536" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b3837933f3422b566560c491b3fa8826" ns2:_="" ns3:_="">
     <xsd:import namespace="a6accf4b-b7ec-4b3d-a55f-4a1bc731afdb"/>
@@ -17615,17 +17732,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="e2e422d0-8bd1-435e-b8fa-e3e725e97536" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a6accf4b-b7ec-4b3d-a55f-4a1bc731afdb">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -17636,6 +17742,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B18E9D6-E8D2-4D65-A97A-6C894D16C998}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e2e422d0-8bd1-435e-b8fa-e3e725e97536"/>
+    <ds:schemaRef ds:uri="a6accf4b-b7ec-4b3d-a55f-4a1bc731afdb"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CE450C6-4451-458B-91A2-4C96B5981100}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17654,17 +17771,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B18E9D6-E8D2-4D65-A97A-6C894D16C998}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e2e422d0-8bd1-435e-b8fa-e3e725e97536"/>
-    <ds:schemaRef ds:uri="a6accf4b-b7ec-4b3d-a55f-4a1bc731afdb"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3574D118-9D2F-44FB-80F6-D650133572CA}">
   <ds:schemaRefs>
